--- a/salary_table_to_single_person/money.xlsx
+++ b/salary_table_to_single_person/money.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/GitHub/myPythonCodes/salary_table_to_single_person/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340"/>
+    <workbookView xWindow="1800" yWindow="3340" windowWidth="51120" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="工资单" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t xml:space="preserve">姓名 </t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>王二</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>lucj@visionet.com.cn</t>
+  </si>
+  <si>
+    <t>573578678@qq.com</t>
+  </si>
+  <si>
+    <t>samzong.lu@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,6 +425,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,9 +450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,225 +735,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.83203125" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.83203125" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>42856</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="16" t="s">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12" t="s">
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="8" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="11"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="12"/>
     </row>
-    <row r="5" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="18">
-        <v>42873</v>
+      <c r="B5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="9">
+      <c r="E5" s="9">
         <v>6000</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
@@ -951,86 +969,89 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9">
         <v>3000</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>9000</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <v>7600</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <v>410</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>6900</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="9">
         <v>23541</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <v>1200</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1040,86 +1061,89 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="9">
         <v>5000</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="K6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="9">
+      <c r="M6" s="9">
         <v>16000</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>14870</v>
       </c>
-      <c r="S6" s="9">
+      <c r="T6" s="9">
         <v>1500</v>
       </c>
-      <c r="T6" s="9">
+      <c r="U6" s="9">
         <v>13400</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="W6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AB6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="9">
         <v>29563</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="18">
-        <v>42228</v>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <v>7500</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1129,86 +1153,94 @@
       <c r="H7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9">
         <v>4000</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="K7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>11500</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>9907</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>8700</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="W7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AA7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AB7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="9">
         <v>24909</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>